--- a/src/code/templates/WorkflowInput.xlsx
+++ b/src/code/templates/WorkflowInput.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="420" windowWidth="19464" windowHeight="8880"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="19464" windowHeight="8820"/>
   </bookViews>
   <sheets>
-    <sheet name="PopulationSimulation" sheetId="1" r:id="rId1"/>
+    <sheet name="MeanModelSimulation" sheetId="3" r:id="rId1"/>
+    <sheet name="PopulationSimulation" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
   <si>
     <t>reportName</t>
   </si>
@@ -31,9 +32,6 @@
     <t>PO230mg</t>
   </si>
   <si>
-    <t>identifier,it is used as directory or file name for the results, please avoid special signs like</t>
-  </si>
-  <si>
     <t>used in report figures and tables as description and legend entry</t>
   </si>
   <si>
@@ -58,33 +56,18 @@
     <t>population name used in figures and tables</t>
   </si>
   <si>
-    <t>outputcsv</t>
-  </si>
-  <si>
-    <t>name of the csv with the output definitions</t>
-  </si>
-  <si>
     <t>Children_OralSingle_IV_Multi.csv</t>
   </si>
   <si>
     <t>virtual test population</t>
   </si>
   <si>
-    <t>output.csv</t>
-  </si>
-  <si>
     <t>studyDesign</t>
   </si>
   <si>
-    <t>name of the csv which contain the study design csv</t>
-  </si>
-  <si>
     <t>PO administration of 320 mg</t>
   </si>
   <si>
-    <t>timeprofile filter for nonmem data file (Matlab readable code, using nonmem headers, empty means no data available)</t>
-  </si>
-  <si>
     <t>AMT==0 &amp; STUD==11826</t>
   </si>
   <si>
@@ -121,9 +104,6 @@
     <t>sensitivity analysis is performed</t>
   </si>
   <si>
-    <t>This population is in comparison plots as Referencepopulation. select 1 for true, 0 for false</t>
-  </si>
-  <si>
     <t>calculatePKParameterFh</t>
   </si>
   <si>
@@ -142,23 +122,95 @@
     <t>Description</t>
   </si>
   <si>
-    <t>paralellComparison</t>
-  </si>
-  <si>
     <t>default plots will be generated</t>
   </si>
   <si>
     <t>Following entries define tasks, which should be performed for all simulations. Only the entries of the first simulation are taken into account</t>
   </si>
   <si>
-    <t>Type of the workflow. Possible options are "pediatric" properties are display vs age and weigth or "parallelComparison" properties are displayed in boxwhsiker plots (e.g. used for disease progression. Only the entry of the first simulation is taken into account</t>
+    <t>parallelComparison</t>
+  </si>
+  <si>
+    <t>outputxls</t>
+  </si>
+  <si>
+    <t>output.xls</t>
+  </si>
+  <si>
+    <t>dataFileTimeprofile</t>
+  </si>
+  <si>
+    <t>name of the xls with the output definitions.</t>
+  </si>
+  <si>
+    <t>outputsheet</t>
+  </si>
+  <si>
+    <t>name of the sheet in the output.xls, if empty first sheet is taken</t>
+  </si>
+  <si>
+    <t>data.nmdat</t>
+  </si>
+  <si>
+    <t>dataDictTimeprofile</t>
+  </si>
+  <si>
+    <t>name of csv file which is used to interprete the nonmen data</t>
+  </si>
+  <si>
+    <t>dict.csv</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>Simulation 2</t>
+  </si>
+  <si>
+    <t>Simulation 3</t>
+  </si>
+  <si>
+    <t>Simulation 4</t>
+  </si>
+  <si>
+    <t>identifier: it is used as directory or file name for the results, please avoid special signs like \</t>
+  </si>
+  <si>
+    <t>simulation</t>
+  </si>
+  <si>
+    <t>timeprofile filter for nonmem data file 
+Matlab readable code, using nonmem headers, 
+if empty no data are filtered, so if you want to use all, include a filter including all data (e.g. SID&gt;0)</t>
+  </si>
+  <si>
+    <t>population</t>
+  </si>
+  <si>
+    <t>name of the nonmem file which contains the data, only one per simulation! May be empty if no data are availbale</t>
+  </si>
+  <si>
+    <t>outputs</t>
+  </si>
+  <si>
+    <t>name of the csv which contain the study design csv, like a body weight dependend dose table,
+may be empty</t>
+  </si>
+  <si>
+    <t>Type of the workflow (Only the entry of the first simulation is taken into account). Possible options are 
+- "pediatric" properties (physiology and PK Parameter) are display vs age and weigth
+- "parallelComparison" PK parameter are displayed parrallel in boxwhsiker plots no refernce population
+- "ratioComparison" same as parallelComparison, but additional the ratio of the PK Parameter to the reference population is calculated</t>
+  </si>
+  <si>
+    <t>This population is used  in comparison plots as Referencepopulation. Important for workflow type pediatric and ratioComparison. select 1 for true, 0 for false</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -178,17 +230,38 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +271,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -214,26 +293,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -535,219 +624,536 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="2" width="28.09765625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="5"/>
+      <c r="B2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.8984375" customWidth="1"/>
+    <col min="2" max="2" width="40" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="8" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="C21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25">
         <v>1</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-    </row>
-    <row r="15" spans="1:3" ht="105.6" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B26" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19">
+      <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/code/templates/WorkflowInput.xlsx
+++ b/src/code/templates/WorkflowInput.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
   <si>
     <t>reportName</t>
   </si>
@@ -197,13 +197,43 @@
 may be empty</t>
   </si>
   <si>
+    <t>This population is used  in comparison plots as Referencepopulation. Important for workflow type pediatric and ratioComparison. select 1 for true, 0 for false</t>
+  </si>
+  <si>
+    <t>Sensitivity</t>
+  </si>
+  <si>
+    <t>sensXls</t>
+  </si>
+  <si>
+    <t>xlsfilefor sensitivity Parameter definition; if it is empty, sheet is in this xlsfile</t>
+  </si>
+  <si>
+    <t>sensSheet</t>
+  </si>
+  <si>
+    <t>xlssheet for sensitivity Parameter definition; if empty first sheet is taken</t>
+  </si>
+  <si>
+    <t>SensitivityParameter</t>
+  </si>
+  <si>
     <t>Type of the workflow (Only the entry of the first simulation is taken into account). Possible options are 
-- "pediatric" properties (physiology and PK Parameter) are display vs age and weigth
-- "parallelComparison" PK parameter are displayed parrallel in boxwhsiker plots no refernce population
+- "pediatric" properties (physiology and PK Parameter) are display vs age and weigth, sensitivity analysis is done on all populations except reference, first pediatric output defines analysed PK Parameter base
+- "parallelComparison" PK parameter are displayed parrallel in boxwhsiker plots no reference population, sensitivity analysis is done on all populations, first output defines analysed PK Parameter base
 - "ratioComparison" same as parallelComparison, but additional the ratio of the PK Parameter to the reference population is calculated</t>
   </si>
   <si>
-    <t>This population is used  in comparison plots as Referencepopulation. Important for workflow type pediatric and ratioComparison. select 1 for true, 0 for false</t>
+    <t>TaskdoAbsorptionPlots</t>
+  </si>
+  <si>
+    <t>absorption is plotted</t>
+  </si>
+  <si>
+    <t>massbalance will be checked</t>
+  </si>
+  <si>
+    <t>TaskcheckMassbalance</t>
   </si>
 </sst>
 </file>
@@ -624,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -798,42 +828,99 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
-      <c r="B15" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C15" s="4"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
     <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="C17" t="s">
+        <v>65</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -843,10 +930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -876,12 +963,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="132" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="198" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -954,7 +1041,7 @@
         <v>21</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1021,7 +1108,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>29</v>
       </c>
@@ -1090,70 +1177,105 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="4"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
     </row>
     <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
       </c>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
     <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/src/code/templates/WorkflowInput.xlsx
+++ b/src/code/templates/WorkflowInput.xlsx
@@ -4,18 +4,405 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="19464" windowHeight="8820"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="19464" windowHeight="8820" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="MeanModelSimulation" sheetId="3" r:id="rId1"/>
-    <sheet name="PopulationSimulation" sheetId="1" r:id="rId2"/>
+    <sheet name="readme" sheetId="8" r:id="rId1"/>
+    <sheet name="Documentation" sheetId="12" r:id="rId2"/>
+    <sheet name="MeanModelSimulation" sheetId="3" r:id="rId3"/>
+    <sheet name="PopulationSimulation" sheetId="1" r:id="rId4"/>
+    <sheet name="output single application" sheetId="5" r:id="rId5"/>
+    <sheet name="output multi application" sheetId="6" r:id="rId6"/>
+    <sheet name="tpDictionary" sheetId="11" r:id="rId7"/>
+    <sheet name="SensitivityParameter" sheetId="7" r:id="rId8"/>
+    <sheet name="DosePerBodyweight" sheetId="9" r:id="rId9"/>
+    <sheet name="DosePerSurfaceArea" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Katrin Coboeken</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Used within matlab code, kursive identifiers are optional, 
+Do not change the identifier, there are used within code.
+It is possible to add new covariates</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+identifier is used to identify one uniuqe individuum
+timeprofile, values are listed with time information
+covariate: assumed one value per individual, if it is not unique, first value is taken</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+name of column in nonmem file; 
+columns with beginning# can not be evaluated</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+unit within nonmen file, 
+the spelling must be the spelling used in PK-SIM/MoBi
+for dv unit should be empty, as there are different units possible, the units of the output definitions must correspond to the units within nonmem</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+for covariates: name used in report</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+pathID to match covariates to correponding simulated population</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Katrin Coboeken</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+First column function handel wich is used to set an application parameter
+available are @addDosetablePerWeight and @addDosetablePerBSA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second hadle list of parameters which are set by the function</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Third line header for numeric info, 
+for addDosetablePerWeight following columns are mandatory column BWmin, BWmax and targetParameter
+attention MoBi internal Units are used , Body weight [kg], BSA [dm^2], DrugMass µmol </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+additional columns can be added. Please make sure column name should no contain specialletters, also e.g. no spaces, as this name is converted into a matlab fieldname</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Katrin Coboeken</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+First column function handel wich is used to set an application parameter
+available are @addDosetablePerWeight and @addDosetablePerBSA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+second hadle list of parameters which are set by the function</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Third line header for numeric info, 
+for @addDosetablePerBSA following columns are mandatory column BSAmin, BSAmax and targetParameter
+attention MoBi internal Units are used , Body weight [kg], BSA [dm^2], DrugMass µmol </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Katrin Coboeken:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+additional columns can be added. Please make sure column name should no contain specialletters, also e.g. no spaces, as this name is converted into a matlab fieldname</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
   <si>
     <t>reportName</t>
   </si>
@@ -131,34 +518,13 @@
     <t>parallelComparison</t>
   </si>
   <si>
-    <t>outputxls</t>
-  </si>
-  <si>
-    <t>output.xls</t>
-  </si>
-  <si>
     <t>dataFileTimeprofile</t>
   </si>
   <si>
-    <t>name of the xls with the output definitions.</t>
-  </si>
-  <si>
-    <t>outputsheet</t>
-  </si>
-  <si>
-    <t>name of the sheet in the output.xls, if empty first sheet is taken</t>
-  </si>
-  <si>
     <t>data.nmdat</t>
   </si>
   <si>
-    <t>dataDictTimeprofile</t>
-  </si>
-  <si>
     <t>name of csv file which is used to interprete the nonmen data</t>
-  </si>
-  <si>
-    <t>dict.csv</t>
   </si>
   <si>
     <t>data</t>
@@ -203,44 +569,478 @@
     <t>Sensitivity</t>
   </si>
   <si>
-    <t>sensXls</t>
-  </si>
-  <si>
-    <t>xlsfilefor sensitivity Parameter definition; if it is empty, sheet is in this xlsfile</t>
-  </si>
-  <si>
-    <t>sensSheet</t>
-  </si>
-  <si>
     <t>xlssheet for sensitivity Parameter definition; if empty first sheet is taken</t>
   </si>
   <si>
     <t>SensitivityParameter</t>
+  </si>
+  <si>
+    <t>TaskdoAbsorptionPlots</t>
+  </si>
+  <si>
+    <t>absorption is plotted</t>
+  </si>
+  <si>
+    <t>massbalance will be checked</t>
+  </si>
+  <si>
+    <t>TaskcheckMassbalance</t>
+  </si>
+  <si>
+    <t>simulation path ID</t>
+  </si>
+  <si>
+    <t>label for report</t>
+  </si>
+  <si>
+    <t>description / identifier of PK Parameter</t>
+  </si>
+  <si>
+    <t>Output 1</t>
+  </si>
+  <si>
+    <t>Output 2</t>
+  </si>
+  <si>
+    <t>Output 3</t>
+  </si>
+  <si>
+    <t>Output 4</t>
+  </si>
+  <si>
+    <t>pathID</t>
+  </si>
+  <si>
+    <t>Organism|PeripheralVenousBlood|C1|Plasma (Peripheral Venous Blood)</t>
+  </si>
+  <si>
+    <t>Organism|Lumen|C1|Fraction of oral drug mass absorbed into mucosa</t>
+  </si>
+  <si>
+    <t>C1 plasma</t>
+  </si>
+  <si>
+    <t>fraction absorbed</t>
+  </si>
+  <si>
+    <t>displayUnit</t>
+  </si>
+  <si>
+    <t>time profile display unit, (use OSPSuite spelling!)</t>
+  </si>
+  <si>
+    <t>µg/l</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>timeprofile filter for nonmem data file (Matlab readable code, using nonmem headers, empty means no data available)</t>
+  </si>
+  <si>
+    <t>CMT==2 &amp; PKFL==0</t>
+  </si>
+  <si>
+    <t>residualScale</t>
+  </si>
+  <si>
+    <t>scale of residual, for lin residuals are calculated as data - simulation for log as log(data) - log(simulation)</t>
+  </si>
+  <si>
+    <t>log</t>
+  </si>
+  <si>
+    <t>lin</t>
+  </si>
+  <si>
+    <t>PK Parameter calculated by default function. Attention the dimension has to be conserved</t>
+  </si>
+  <si>
+    <t>pkparameter</t>
+  </si>
+  <si>
+    <t>C_max</t>
+  </si>
+  <si>
+    <t>C_max_norm</t>
+  </si>
+  <si>
+    <t>mg/l</t>
+  </si>
+  <si>
+    <t>t_max</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>C_tEnd</t>
+  </si>
+  <si>
+    <t>AUC</t>
+  </si>
+  <si>
+    <t>µg*h/l</t>
+  </si>
+  <si>
+    <t>AUC_norm</t>
+  </si>
+  <si>
+    <t>µg*min/l</t>
+  </si>
+  <si>
+    <t>AUC_inf</t>
+  </si>
+  <si>
+    <t>AUC_inf_norm</t>
+  </si>
+  <si>
+    <t>MRT</t>
+  </si>
+  <si>
+    <t>Thalf</t>
+  </si>
+  <si>
+    <t>FractionAucLastToInf</t>
+  </si>
+  <si>
+    <t>CL</t>
+  </si>
+  <si>
+    <t>ml/min/kg</t>
+  </si>
+  <si>
+    <t>Vss</t>
+  </si>
+  <si>
+    <t>ml/kg</t>
+  </si>
+  <si>
+    <t>Vd</t>
+  </si>
+  <si>
+    <t>F_max</t>
+  </si>
+  <si>
+    <t>F_tEnd</t>
+  </si>
+  <si>
+    <t>C_max_t1_t2</t>
+  </si>
+  <si>
+    <t>C_max_t1_t2_norm</t>
+  </si>
+  <si>
+    <t>C_max_tLast_tEnd</t>
+  </si>
+  <si>
+    <t>C_max_tLast_tEnd_norm</t>
+  </si>
+  <si>
+    <t>t_max_t1_t2</t>
+  </si>
+  <si>
+    <t>t_max_tLast_tEnd</t>
+  </si>
+  <si>
+    <t>C_trough_t2</t>
+  </si>
+  <si>
+    <t>C_trough_tLast</t>
+  </si>
+  <si>
+    <t>AUC_t1_t2</t>
+  </si>
+  <si>
+    <t>µmol*min/l</t>
+  </si>
+  <si>
+    <t>AUC_t1_t2_norm</t>
+  </si>
+  <si>
+    <t>AUC_tLast_minus_1_tLast</t>
+  </si>
+  <si>
+    <t>AUC_tLast_minus_1_tLast_norm</t>
+  </si>
+  <si>
+    <t>AUC_inf_t1</t>
+  </si>
+  <si>
+    <t>AUC_inf_t1_norm</t>
+  </si>
+  <si>
+    <t>AUC_inf_tLast</t>
+  </si>
+  <si>
+    <t>AUC_inf_tLast_norm</t>
+  </si>
+  <si>
+    <t>Thalf_tLast_tEnd</t>
+  </si>
+  <si>
+    <t>F_max_t1_t2</t>
+  </si>
+  <si>
+    <t>F_max_tLast_tEnd</t>
+  </si>
+  <si>
+    <t>F_at_t2</t>
+  </si>
+  <si>
+    <t>F_at_tLast</t>
+  </si>
+  <si>
+    <t>output single application</t>
+  </si>
+  <si>
+    <t>name of the sheet with the output definitions</t>
+  </si>
+  <si>
+    <t>functionHandle = @addDosetablePerWeight</t>
+  </si>
+  <si>
+    <t>targetParameterList = {'*Application_*|ProtocolSchemaItem|DrugMass'}</t>
+  </si>
+  <si>
+    <t>BWmin</t>
+  </si>
+  <si>
+    <t>BWmax</t>
+  </si>
+  <si>
+    <t>targetParameter</t>
+  </si>
+  <si>
+    <t>dose_mg</t>
+  </si>
+  <si>
+    <t>functionHandle = @addDosetablePerBSA</t>
+  </si>
+  <si>
+    <t>BSAmin</t>
+  </si>
+  <si>
+    <t>BSAmax</t>
+  </si>
+  <si>
+    <t>matlabID</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>nonmenColumn</t>
+  </si>
+  <si>
+    <t>nonmemUnit</t>
+  </si>
+  <si>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>sid</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>SID</t>
+  </si>
+  <si>
+    <t>stud</t>
+  </si>
+  <si>
+    <t>STUD</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>timeprofile</t>
+  </si>
+  <si>
+    <t>TIME</t>
+  </si>
+  <si>
+    <t>dv</t>
+  </si>
+  <si>
+    <t>DV</t>
+  </si>
+  <si>
+    <t>units are defined in corresponding output definitions</t>
+  </si>
+  <si>
+    <t>tad</t>
+  </si>
+  <si>
+    <t>TAD</t>
+  </si>
+  <si>
+    <t>lloq</t>
+  </si>
+  <si>
+    <t>LOQ</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>covariate</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>year(s)</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Organism|Age</t>
+  </si>
+  <si>
+    <t>wght</t>
+  </si>
+  <si>
+    <t>WGHT</t>
+  </si>
+  <si>
+    <t>kg</t>
+  </si>
+  <si>
+    <t>Body weight</t>
+  </si>
+  <si>
+    <t>Organism|Weight</t>
+  </si>
+  <si>
+    <t>hght</t>
+  </si>
+  <si>
+    <t>HGHT</t>
+  </si>
+  <si>
+    <t>cm</t>
+  </si>
+  <si>
+    <t>Height</t>
+  </si>
+  <si>
+    <t>Organism|Height</t>
+  </si>
+  <si>
+    <t>bmi</t>
+  </si>
+  <si>
+    <t>BMI</t>
+  </si>
+  <si>
+    <t>kg/m²</t>
+  </si>
+  <si>
+    <t>Organism|BMI</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Make sure 1=male  2= female</t>
+  </si>
+  <si>
+    <t>tpDictionary</t>
+  </si>
+  <si>
+    <t>name of sheet which is used to interprete the nonmen data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a Mean Model Workflow, select sheet "MeanModelSimulation" and make it to your main sheet by shifting it to the first position in the xlsx on the left
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For a Population Workflow, select sheet "PopulationSimulation" and make it to your main sheet by shifting it to the first position in the xlsx on the left
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fill the main sheet according the descriptions in the second columns and all sheets you references in the main sheet. </t>
+  </si>
+  <si>
+    <t>1.a</t>
+  </si>
+  <si>
+    <t>1.b</t>
+  </si>
+  <si>
+    <t>adjust the workflow.m if necessary and start</t>
+  </si>
+  <si>
+    <t>Fill the documentation sheet</t>
+  </si>
+  <si>
+    <t>Purpose:</t>
+  </si>
+  <si>
+    <t>M&amp;S activity:</t>
+  </si>
+  <si>
+    <t>Validation level:</t>
+  </si>
+  <si>
+    <t>Please fill in the purpose of the script</t>
+  </si>
+  <si>
+    <t>Please fill in the corresponding M&amp;S activity</t>
+  </si>
+  <si>
+    <t>Please fill in the Validation level</t>
+  </si>
+  <si>
+    <t>Save the xls and got to Matlab Call prepareWorkflow("xlsfile") a workflow.m will be created</t>
   </si>
   <si>
     <t>Type of the workflow (Only the entry of the first simulation is taken into account). Possible options are 
 - "pediatric" properties (physiology and PK Parameter) are display vs age and weigth, sensitivity analysis is done on all populations except reference, first pediatric output defines analysed PK Parameter base
 - "parallelComparison" PK parameter are displayed parrallel in boxwhsiker plots no reference population, sensitivity analysis is done on all populations, first output defines analysed PK Parameter base
-- "ratioComparison" same as parallelComparison, but additional the ratio of the PK Parameter to the reference population is calculated</t>
-  </si>
-  <si>
-    <t>TaskdoAbsorptionPlots</t>
-  </si>
-  <si>
-    <t>absorption is plotted</t>
-  </si>
-  <si>
-    <t>massbalance will be checked</t>
-  </si>
-  <si>
-    <t>TaskcheckMassbalance</t>
+- "ratioComparison" same as parallelComparison, but additional the ratio of the PK Parameter to the reference population is calculated. For that it is assumed that the populations contains the same individuals, which differ only in some specific parameters ( for example GFR). The ratio is calculated by dividing the individual values with the corresponding individuals from the reference population.</t>
+  </si>
+  <si>
+    <t>sheetOutput</t>
+  </si>
+  <si>
+    <t>sheetSensitivity</t>
+  </si>
+  <si>
+    <t>popModel</t>
+  </si>
+  <si>
+    <t>meanModel</t>
+  </si>
+  <si>
+    <t>Type of workflow, do not edit. If you want to do a Poulation workflow, select "PopulationSimulation" as main sheet</t>
+  </si>
+  <si>
+    <t>Type of workflow, do not edit. If you want to do a Mean model workflow, select "MeanModelSimulation" as main sheet</t>
+  </si>
+  <si>
+    <t>WorkflowMode</t>
+  </si>
+  <si>
+    <t>sheetDataDictTimeprofile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -290,8 +1090,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -310,8 +1130,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -319,11 +1145,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -353,6 +1194,40 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -654,10 +1529,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.3984375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="128.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="26">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26">
+        <v>3</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26">
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <f>D4/225.21*1000</f>
+        <v>244.21650903601082</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+10</f>
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <f>B4+10</f>
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C10" si="0">D5/225.21*1000</f>
+        <v>288.61951067892187</v>
+      </c>
+      <c r="D5">
+        <f>D4+10</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:B10" si="1">A5+10</f>
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>333.02251232183295</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="2">D5+10</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>377.42551396474397</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>421.82851560765505</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>466.23151725056613</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>510.63451889347721</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.09765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="B1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="B2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="B3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -678,85 +1833,91 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5"/>
-      <c r="B2" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="5"/>
+      <c r="B3" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
     </row>
     <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B5" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+      <c r="B7" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>43</v>
+        <v>129</v>
+      </c>
+      <c r="C8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
@@ -770,7 +1931,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5"/>
       <c r="B10" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -779,13 +1940,13 @@
     </row>
     <row r="11" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -793,13 +1954,13 @@
     </row>
     <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>46</v>
+        <v>184</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -810,7 +1971,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
@@ -830,54 +1991,57 @@
     <row r="15" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
       <c r="B15" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" t="s">
-        <v>65</v>
-      </c>
+    <row r="17" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="4"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
-      <c r="B18" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="4"/>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C19">
         <v>1</v>
@@ -888,37 +2052,23 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22">
         <v>0</v>
       </c>
     </row>
@@ -928,18 +2078,18 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:E24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A7" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.8984375" customWidth="1"/>
-    <col min="2" max="2" width="40" style="2" customWidth="1"/>
+    <col min="2" max="2" width="44.19921875" style="2" customWidth="1"/>
     <col min="3" max="3" width="27.796875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -954,158 +2104,164 @@
         <v>3</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="198" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="8" customFormat="1" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" ht="232.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="C3" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="5"/>
+      <c r="B4" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B6" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+    <row r="9" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="52.8" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="B9" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9">
+      <c r="B10" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="5"/>
+      <c r="B11" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>42</v>
+        <v>200</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>129</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
@@ -1119,22 +2275,22 @@
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
@@ -1142,13 +2298,13 @@
     </row>
     <row r="19" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>45</v>
+        <v>207</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
@@ -1159,7 +2315,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C20" t="s">
         <v>17</v>
@@ -1179,7 +2335,7 @@
     <row r="22" spans="1:6" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5"/>
       <c r="B22" s="9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -1188,45 +2344,48 @@
     </row>
     <row r="23" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
-        <v>61</v>
+        <v>201</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>62</v>
+        <v>54</v>
+      </c>
+      <c r="C23" t="s">
+        <v>55</v>
       </c>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
-      <c r="A24" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
+    <row r="24" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="4"/>
+    <row r="25" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C26">
         <v>0</v>
@@ -1235,15 +2394,15 @@
       <c r="E26" s="5"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" ht="39.6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1251,10 +2410,10 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1262,23 +2421,1268 @@
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
       <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
-      </c>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.19921875" style="14"/>
+    <col min="2" max="2" width="30.59765625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="19.296875" customWidth="1"/>
+    <col min="4" max="4" width="15.19921875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="13" customFormat="1" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
+        <v>91</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
+        <v>102</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C21" t="s">
+        <v>102</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22">
+        <v>-1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>105</v>
+      </c>
+      <c r="C23">
+        <v>-1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F34"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E2" s="15"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D16">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C21" t="s">
+        <v>115</v>
+      </c>
+      <c r="D21">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D26">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30">
+        <v>-1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="C31">
+        <v>-1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="C32">
+        <v>-1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="C33">
+        <v>-1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B34" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="C34">
+        <v>-1</v>
+      </c>
+      <c r="D34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.5" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="23" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="23"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" ht="69" x14ac:dyDescent="0.25">
+      <c r="A5" s="22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="23" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="23" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="G8" s="23"/>
+    </row>
+    <row r="9" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G9" s="23"/>
+    </row>
+    <row r="10" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B10" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>171</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>172</v>
+      </c>
+      <c r="E10" s="23" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>178</v>
+      </c>
+      <c r="G11" s="23"/>
+    </row>
+    <row r="12" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+      <c r="A12" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="B12" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>182</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="3" max="3" width="17.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>60</v>
+      </c>
+      <c r="C4">
+        <f>D4/225.21*1000</f>
+        <v>244.21650903601082</v>
+      </c>
+      <c r="D4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>A4+10</f>
+        <v>60</v>
+      </c>
+      <c r="B5">
+        <f>B4+10</f>
+        <v>70</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:C10" si="0">D5/225.21*1000</f>
+        <v>288.61951067892187</v>
+      </c>
+      <c r="D5">
+        <f>D4+10</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:B10" si="1">A5+10</f>
+        <v>70</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>333.02251232183295</v>
+      </c>
+      <c r="D6">
+        <f t="shared" ref="D6:D10" si="2">D5+10</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>377.42551396474397</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>421.82851560765505</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>466.23151725056613</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="1"/>
+        <v>110</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>510.63451889347721</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>